--- a/biology/Botanique/Arboretum_d'Hørsholm/Arboretum_d'Hørsholm.xlsx
+++ b/biology/Botanique/Arboretum_d'Hørsholm/Arboretum_d'Hørsholm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arboretum_d%27H%C3%B8rsholm</t>
+          <t>Arboretum_d'Hørsholm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Arboretum d'Hørsholm (danois : Arboretet i Hørsholm) est un arboretum situé à Hørsholm, à 20 km au nord de Copenhague, au Danemark. Il dépend de l'Université de Copenhague et fait partie de son Département de géosciences et de gestion des ressources naturelles[1].
+L'Arboretum d'Hørsholm (danois : Arboretet i Hørsholm) est un arboretum situé à Hørsholm, à 20 km au nord de Copenhague, au Danemark. Il dépend de l'Université de Copenhague et fait partie de son Département de géosciences et de gestion des ressources naturelles.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arboretum_d%27H%C3%B8rsholm</t>
+          <t>Arboretum_d'Hørsholm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Arboretum</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Arboretum d'Hørsholm a été fondé par l'université royale vétérinaire et agricole en 1936 pour permettre l'extension, sur un autre site, du Jardin botanique forestier de Charlottenlund.
-Avec approximativement 2 500 taxons d'arbres et arbustes, l'arboretum est aujourd'hui le plus important arboretum du Danemark[2].
+Avec approximativement 2 500 taxons d'arbres et arbustes, l'arboretum est aujourd'hui le plus important arboretum du Danemark.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arboretum_d%27H%C3%B8rsholm</t>
+          <t>Arboretum_d'Hørsholm</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Bâtiments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Centre de recherche sur la forêt et le paysage a été construit entre 1994 et 1995 par l'inspecteur des Bâtiments Royaux, Gehrdt Bornebusch. Il a été conçu pour maximiser les vues sur l'arboretum et l'étang d'Ubberød. L'utilisation du bois, tant d'orme que de pin, est caractéristique de son architecture[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre de recherche sur la forêt et le paysage a été construit entre 1994 et 1995 par l'inspecteur des Bâtiments Royaux, Gehrdt Bornebusch. Il a été conçu pour maximiser les vues sur l'arboretum et l'étang d'Ubberød. L'utilisation du bois, tant d'orme que de pin, est caractéristique de son architecture.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arboretum_d%27H%C3%B8rsholm</t>
+          <t>Arboretum_d'Hørsholm</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Ouverture au public</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Arboretum d'Hørsholm est ouvert quotidiennement au public de 7:30 du matin jusqu'au coucher du soleil. 
 Il est particulièrement fréquenté au mois de mai lors de la floraison de variétés sauvages de rhododendrons.
